--- a/results/plots/N.xlsx
+++ b/results/plots/N.xlsx
@@ -58,13 +58,13 @@
     <t>Clients count (M) = 10</t>
   </si>
   <si>
-    <t>Delay (?) = 10</t>
+    <t>Change Array size (N) from 1000 to 2000 with step 100</t>
   </si>
   <si>
-    <t>Requests count (X) = 10</t>
+    <t>Requests count (X) = 50</t>
   </si>
   <si>
-    <t>Change Array size (N) from 1000 to 2000 with step 100</t>
+    <t>Delay (∆) = 0</t>
   </si>
 </sst>
 </file>
@@ -203,37 +203,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>553.70000000000005</c:v>
+                  <c:v>1961.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>486.5</c:v>
+                  <c:v>1980</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>566.20000000000005</c:v>
+                  <c:v>2125.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>538.9</c:v>
+                  <c:v>2246.1999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>551.20000000000005</c:v>
+                  <c:v>2435.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>613.20000000000005</c:v>
+                  <c:v>2495.8000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>673.4</c:v>
+                  <c:v>2687.1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>717.5</c:v>
+                  <c:v>2777.2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>737.2</c:v>
+                  <c:v>2878.1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>973.1</c:v>
+                  <c:v>3136.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>806.5</c:v>
+                  <c:v>3259.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -306,37 +306,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>524</c:v>
+                  <c:v>1766.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>556</c:v>
+                  <c:v>1939.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>621.1</c:v>
+                  <c:v>2082.8000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>617.29999999999995</c:v>
+                  <c:v>2188</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>638.79999999999995</c:v>
+                  <c:v>2261.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>779.3</c:v>
+                  <c:v>2552.8000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>727.2</c:v>
+                  <c:v>2775.1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>712.8</c:v>
+                  <c:v>2914.4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>718.8</c:v>
+                  <c:v>3216.8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>773.1</c:v>
+                  <c:v>3314.7</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>785.1</c:v>
+                  <c:v>3361</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -409,37 +409,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1092.2</c:v>
+                  <c:v>5161.3999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1109.7</c:v>
+                  <c:v>5629.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1522.2</c:v>
+                  <c:v>6655.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1704.5</c:v>
+                  <c:v>6703</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1632.7</c:v>
+                  <c:v>6742.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1573.9</c:v>
+                  <c:v>8516</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1579.3</c:v>
+                  <c:v>7278.4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1554.3</c:v>
+                  <c:v>7557.1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1666.1</c:v>
+                  <c:v>8009.8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1716.4</c:v>
+                  <c:v>8151.1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1755.6</c:v>
+                  <c:v>8318.7999999999993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -512,37 +512,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>221.3</c:v>
+                  <c:v>471.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>238</c:v>
+                  <c:v>545.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>244.5</c:v>
+                  <c:v>530.70000000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>257.60000000000002</c:v>
+                  <c:v>598.9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>250.9</c:v>
+                  <c:v>581</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>268.5</c:v>
+                  <c:v>601.29999999999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>271.5</c:v>
+                  <c:v>593.20000000000005</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>280.8</c:v>
+                  <c:v>692.3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>284.89999999999998</c:v>
+                  <c:v>669.9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>283.39999999999998</c:v>
+                  <c:v>647.29999999999995</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>291.8</c:v>
+                  <c:v>663.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -615,37 +615,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>454.9</c:v>
+                  <c:v>5039.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>492.2</c:v>
+                  <c:v>1982.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>555</c:v>
+                  <c:v>2108.6999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>552.5</c:v>
+                  <c:v>2222.8000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>632.70000000000005</c:v>
+                  <c:v>2356.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>681.9</c:v>
+                  <c:v>2560.9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>658.5</c:v>
+                  <c:v>2626.3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>655.5</c:v>
+                  <c:v>2634.8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>756.3</c:v>
+                  <c:v>2976.3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>720.7</c:v>
+                  <c:v>3067.7</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>833.7</c:v>
+                  <c:v>3221.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -718,37 +718,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>427.7</c:v>
+                  <c:v>1808.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>496.6</c:v>
+                  <c:v>1965.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>515.70000000000005</c:v>
+                  <c:v>2061.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>638.4</c:v>
+                  <c:v>2204.3000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>600.5</c:v>
+                  <c:v>2373.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>660</c:v>
+                  <c:v>2614.4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>706.1</c:v>
+                  <c:v>2773.1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>750.4</c:v>
+                  <c:v>2784.3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>728.2</c:v>
+                  <c:v>2933.4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>796.8</c:v>
+                  <c:v>2910.3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>850.5</c:v>
+                  <c:v>3305.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -821,37 +821,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>591</c:v>
+                  <c:v>1747.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>594.4</c:v>
+                  <c:v>1823.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>690.9</c:v>
+                  <c:v>2118.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>723</c:v>
+                  <c:v>2325.1999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>749.2</c:v>
+                  <c:v>2348.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>896</c:v>
+                  <c:v>2452.3000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>866.7</c:v>
+                  <c:v>2677.7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>834.5</c:v>
+                  <c:v>2790.1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>875.3</c:v>
+                  <c:v>3000.3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>799.8</c:v>
+                  <c:v>3217.6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>815</c:v>
+                  <c:v>3222.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -924,37 +924,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>513.6</c:v>
+                  <c:v>1741.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>588.9</c:v>
+                  <c:v>1870.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>652</c:v>
+                  <c:v>2065.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>709</c:v>
+                  <c:v>2203.6999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>732.9</c:v>
+                  <c:v>2309.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>791.1</c:v>
+                  <c:v>2534</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>751.4</c:v>
+                  <c:v>2596.3000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>825.2</c:v>
+                  <c:v>2740.3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>878.6</c:v>
+                  <c:v>2860.9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1030.2</c:v>
+                  <c:v>3167.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>983.4</c:v>
+                  <c:v>3145.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1027,37 +1027,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>612.9</c:v>
+                  <c:v>1432.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>644</c:v>
+                  <c:v>1514.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>920.8</c:v>
+                  <c:v>5900.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>811.2</c:v>
+                  <c:v>1892.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>640.70000000000005</c:v>
+                  <c:v>2042.9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>738.2</c:v>
+                  <c:v>2279.6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>753.4</c:v>
+                  <c:v>2603.6999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>697.2</c:v>
+                  <c:v>2505.9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>589.20000000000005</c:v>
+                  <c:v>2558.6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>691</c:v>
+                  <c:v>2568.4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>729.7</c:v>
+                  <c:v>2948.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1130,37 +1130,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>542.4</c:v>
+                  <c:v>1873.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>524.79999999999995</c:v>
+                  <c:v>1907.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>877</c:v>
+                  <c:v>1957.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>625.29999999999995</c:v>
+                  <c:v>1946</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>636.79999999999995</c:v>
+                  <c:v>1969.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>704.4</c:v>
+                  <c:v>2302.1999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>731.1</c:v>
+                  <c:v>2432</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>777.5</c:v>
+                  <c:v>2703.8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>831</c:v>
+                  <c:v>2359.6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>912.5</c:v>
+                  <c:v>2803.6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>870.5</c:v>
+                  <c:v>2973</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1177,11 +1177,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="97067008"/>
-        <c:axId val="67224128"/>
+        <c:axId val="93261312"/>
+        <c:axId val="66634880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="97067008"/>
+        <c:axId val="93261312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1191,7 +1191,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67224128"/>
+        <c:crossAx val="66634880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1199,7 +1199,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67224128"/>
+        <c:axId val="66634880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1210,7 +1210,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97067008"/>
+        <c:crossAx val="93261312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1318,37 +1318,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>544.4</c:v>
+                  <c:v>4.5819999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>469.8</c:v>
+                  <c:v>3.26</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>555.5</c:v>
+                  <c:v>3.4660000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>538.1</c:v>
+                  <c:v>3.0339999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>547.5</c:v>
+                  <c:v>3.44</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>606.79999999999995</c:v>
+                  <c:v>3.4580000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>667.7</c:v>
+                  <c:v>3.6659999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>712.8</c:v>
+                  <c:v>3.97</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>728.8</c:v>
+                  <c:v>5.4039999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>965.5</c:v>
+                  <c:v>4.0119999999999996</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>798.5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1421,37 +1421,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>522.29999999999995</c:v>
+                  <c:v>2.62</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>547.20000000000005</c:v>
+                  <c:v>2.6139999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>610.1</c:v>
+                  <c:v>2.82</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>611.9</c:v>
+                  <c:v>4.7300000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>633.5</c:v>
+                  <c:v>3.4460000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>767.8</c:v>
+                  <c:v>3.1379999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>722.3</c:v>
+                  <c:v>3.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>708.5</c:v>
+                  <c:v>3.508</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>709.6</c:v>
+                  <c:v>4.5019999999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>769.3</c:v>
+                  <c:v>3.8439999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>778.5</c:v>
+                  <c:v>3.9140000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1524,37 +1524,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>11.23</c:v>
+                  <c:v>0.76200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.23</c:v>
+                  <c:v>0.82199999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.6</c:v>
+                  <c:v>0.81599999999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.47</c:v>
+                  <c:v>0.83</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.53</c:v>
+                  <c:v>0.88400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16.07</c:v>
+                  <c:v>0.86799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.07</c:v>
+                  <c:v>0.93400000000000005</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15.91</c:v>
+                  <c:v>0.876</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.010000000000002</c:v>
+                  <c:v>0.92200000000000004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17.47</c:v>
+                  <c:v>0.89200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>18.09</c:v>
+                  <c:v>0.98399999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1627,37 +1627,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>218.3</c:v>
+                  <c:v>3.5259999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>233.9</c:v>
+                  <c:v>4.0780000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>243.6</c:v>
+                  <c:v>3.988</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>241.9</c:v>
+                  <c:v>4.5780000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>249.8</c:v>
+                  <c:v>4.7519999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>268.39999999999998</c:v>
+                  <c:v>4.8040000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>271.7</c:v>
+                  <c:v>4.6520000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>272.8</c:v>
+                  <c:v>6.2880000000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>284.10000000000002</c:v>
+                  <c:v>4.8120000000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>280.5</c:v>
+                  <c:v>4.9539999999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>290.3</c:v>
+                  <c:v>5.0599999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1730,37 +1730,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>446.3</c:v>
+                  <c:v>7.9196080000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>484.9</c:v>
+                  <c:v>4.2607840000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>531.79999999999995</c:v>
+                  <c:v>3.6862750000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>546.29999999999995</c:v>
+                  <c:v>3.6843140000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>617.79999999999995</c:v>
+                  <c:v>3.8627449999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>666.4</c:v>
+                  <c:v>5.8450980000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>649</c:v>
+                  <c:v>4.1470589999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>650.29999999999995</c:v>
+                  <c:v>8.6901960000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>751.5</c:v>
+                  <c:v>4.7901959999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>714.6</c:v>
+                  <c:v>4.7470590000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>826.3</c:v>
+                  <c:v>4.9549019999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1833,37 +1833,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>419.4</c:v>
+                  <c:v>2.4784310000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>484.9</c:v>
+                  <c:v>2.5941179999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>508.5</c:v>
+                  <c:v>2.8274509999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>617.70000000000005</c:v>
+                  <c:v>2.7019609999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>587.9</c:v>
+                  <c:v>2.9509799999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>658.2</c:v>
+                  <c:v>3.1392159999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>710.2</c:v>
+                  <c:v>3.3274509999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>744.1</c:v>
+                  <c:v>3.4647060000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>720.5</c:v>
+                  <c:v>3.876471</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>788.1</c:v>
+                  <c:v>8.1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>842.5</c:v>
+                  <c:v>4.2254899999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1936,37 +1936,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>582.29999999999995</c:v>
+                  <c:v>3.6294119999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>585</c:v>
+                  <c:v>4.4235290000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>678.8</c:v>
+                  <c:v>3.780392</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>723.7</c:v>
+                  <c:v>4.0882350000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>739.5</c:v>
+                  <c:v>3.8705880000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>891.9</c:v>
+                  <c:v>3.9960779999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>856.7</c:v>
+                  <c:v>4.6607839999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>826.9</c:v>
+                  <c:v>4.4352939999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>870.6</c:v>
+                  <c:v>4.8803919999999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>798.6</c:v>
+                  <c:v>4.9254899999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>814.5</c:v>
+                  <c:v>4.9588239999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2039,37 +2039,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>510.1</c:v>
+                  <c:v>2.805882</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>578.70000000000005</c:v>
+                  <c:v>3.9901960000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>647.4</c:v>
+                  <c:v>3.1843140000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>702</c:v>
+                  <c:v>3.2156859999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>712.6</c:v>
+                  <c:v>3.6921569999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>776.6</c:v>
+                  <c:v>3.754902</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>740.9</c:v>
+                  <c:v>4.2098040000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>803.4</c:v>
+                  <c:v>5.4372550000000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>864.1</c:v>
+                  <c:v>4.3627450000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1020.3</c:v>
+                  <c:v>4.3843139999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>972.2</c:v>
+                  <c:v>4.8294119999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2142,37 +2142,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>8.6020409999999998</c:v>
+                  <c:v>6.0363639999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.242424</c:v>
+                  <c:v>8.4658630000000006</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.273683999999999</c:v>
+                  <c:v>12.036</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.806122</c:v>
+                  <c:v>10.632</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.02</c:v>
+                  <c:v>12.353999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.2</c:v>
+                  <c:v>12.644</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.85</c:v>
+                  <c:v>14.186747</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16.399999999999999</c:v>
+                  <c:v>13.684739</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.69</c:v>
+                  <c:v>11.901210000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17.98</c:v>
+                  <c:v>13.450704</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16.559999999999999</c:v>
+                  <c:v>16.491968</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2245,37 +2245,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>14.88</c:v>
+                  <c:v>10.560484000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.39</c:v>
+                  <c:v>9.2132799999999992</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.260000000000002</c:v>
+                  <c:v>13.122</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.29</c:v>
+                  <c:v>9.3742450000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.940000000000001</c:v>
+                  <c:v>10.27163</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16.899999999999999</c:v>
+                  <c:v>14.655936000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.39</c:v>
+                  <c:v>16.582000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.600000000000001</c:v>
+                  <c:v>17.901803999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19.919191999999999</c:v>
+                  <c:v>10.387423999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>25.04</c:v>
+                  <c:v>16.232465000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>24.84</c:v>
+                  <c:v>14.384615</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2292,11 +2292,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="97070080"/>
-        <c:axId val="67226432"/>
+        <c:axId val="94391296"/>
+        <c:axId val="66637184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="97070080"/>
+        <c:axId val="94391296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2306,7 +2306,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67226432"/>
+        <c:crossAx val="66637184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2314,7 +2314,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67226432"/>
+        <c:axId val="66637184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2325,7 +2325,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97070080"/>
+        <c:crossAx val="94391296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2433,37 +2433,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>5.82</c:v>
+                  <c:v>2.7320000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.43</c:v>
+                  <c:v>1.532</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0299999999999998</c:v>
+                  <c:v>1.516</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1000000000000001</c:v>
+                  <c:v>1.1719999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.55</c:v>
+                  <c:v>1.014</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.0299999999999998</c:v>
+                  <c:v>1.1140000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.47</c:v>
+                  <c:v>0.98599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.47</c:v>
+                  <c:v>1.0740000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.79</c:v>
+                  <c:v>0.86599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.96</c:v>
+                  <c:v>0.91400000000000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.25</c:v>
+                  <c:v>0.87</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2536,37 +2536,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.64</c:v>
+                  <c:v>1.246</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1000000000000001</c:v>
+                  <c:v>1.1200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.93</c:v>
+                  <c:v>0.99199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.1800000000000002</c:v>
+                  <c:v>0.86</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4</c:v>
+                  <c:v>1.002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.0499999999999998</c:v>
+                  <c:v>0.89600000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.61</c:v>
+                  <c:v>0.85799999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.56</c:v>
+                  <c:v>0.81200000000000006</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.1000000000000001</c:v>
+                  <c:v>0.874</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.07</c:v>
+                  <c:v>0.80800000000000005</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.1100000000000001</c:v>
+                  <c:v>0.84399999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2639,37 +2639,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.63800000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.16</c:v>
+                  <c:v>0.65200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.47</c:v>
+                  <c:v>0.65800000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.64</c:v>
+                  <c:v>0.61799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.62</c:v>
+                  <c:v>0.66800000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.3</c:v>
+                  <c:v>0.69399999999999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.16</c:v>
+                  <c:v>0.72599999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.31</c:v>
+                  <c:v>0.70799999999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.31</c:v>
+                  <c:v>0.75800000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.32</c:v>
+                  <c:v>0.70599999999999996</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.77200000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2742,37 +2742,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>18.8</c:v>
+                  <c:v>1.42</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26.2</c:v>
+                  <c:v>1.57</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.7</c:v>
+                  <c:v>1.5620000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.600000000000001</c:v>
+                  <c:v>1.62</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28.3</c:v>
+                  <c:v>1.8220000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23.6</c:v>
+                  <c:v>1.728</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31.7</c:v>
+                  <c:v>1.5860000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19.2</c:v>
+                  <c:v>1.66</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21.9</c:v>
+                  <c:v>1.798</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>27</c:v>
+                  <c:v>1.93</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14.4</c:v>
+                  <c:v>1.8660000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2845,37 +2845,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.42</c:v>
+                  <c:v>3.11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.08</c:v>
+                  <c:v>1.3240000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.58</c:v>
+                  <c:v>1.0820000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.79</c:v>
+                  <c:v>1.02</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.94</c:v>
+                  <c:v>0.95599999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.56</c:v>
+                  <c:v>1.9279999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.25</c:v>
+                  <c:v>0.93</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.39</c:v>
+                  <c:v>0.92200000000000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.08</c:v>
+                  <c:v>1.1339999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.19</c:v>
+                  <c:v>0.96</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.69</c:v>
+                  <c:v>1.1120000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2948,37 +2948,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.4</c:v>
+                  <c:v>0.62</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.79</c:v>
+                  <c:v>0.63200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.26</c:v>
+                  <c:v>0.65800000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.46</c:v>
+                  <c:v>0.64200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.63</c:v>
+                  <c:v>0.67400000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.77</c:v>
+                  <c:v>0.64800000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.78</c:v>
+                  <c:v>0.66</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.08</c:v>
+                  <c:v>0.69799999999999995</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.94</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.93</c:v>
+                  <c:v>0.73</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.88</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3051,37 +3051,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.85</c:v>
+                  <c:v>1.006</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.92</c:v>
+                  <c:v>0.79400000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.94</c:v>
+                  <c:v>0.90600000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.63</c:v>
+                  <c:v>0.92400000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.62</c:v>
+                  <c:v>0.96</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.42</c:v>
+                  <c:v>0.88800000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.24</c:v>
+                  <c:v>0.85799999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.26</c:v>
+                  <c:v>0.92200000000000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.24</c:v>
+                  <c:v>1.046</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.95</c:v>
+                  <c:v>0.88800000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.92</c:v>
+                  <c:v>0.93</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3154,37 +3154,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.16</c:v>
+                  <c:v>0.92800000000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.15</c:v>
+                  <c:v>0.86599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.16</c:v>
+                  <c:v>0.82199999999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.70799999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.48</c:v>
+                  <c:v>0.84799999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.47</c:v>
+                  <c:v>0.87</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.46</c:v>
+                  <c:v>0.91400000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.15</c:v>
+                  <c:v>0.878</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.31</c:v>
+                  <c:v>0.90200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.8</c:v>
+                  <c:v>0.87</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.47</c:v>
+                  <c:v>0.92600000000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3257,37 +3257,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.46938800000000003</c:v>
+                  <c:v>1.0202020000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.1515149999999998</c:v>
+                  <c:v>1.182731</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.83157899999999996</c:v>
+                  <c:v>1.266</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.64285700000000001</c:v>
+                  <c:v>0.99399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.62</c:v>
+                  <c:v>0.87</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.77</c:v>
+                  <c:v>0.81</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.31</c:v>
+                  <c:v>0.91767100000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.76</c:v>
+                  <c:v>0.80923699999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.48</c:v>
+                  <c:v>0.79435500000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.78</c:v>
+                  <c:v>0.818913</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.47</c:v>
+                  <c:v>0.85943800000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3360,37 +3360,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.1200000000000001</c:v>
+                  <c:v>0.94556499999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0099999999999998</c:v>
+                  <c:v>1.307847</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0099999999999998</c:v>
+                  <c:v>0.92200000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.41</c:v>
+                  <c:v>0.80482900000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.39</c:v>
+                  <c:v>0.87122699999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.94</c:v>
+                  <c:v>0.847082</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.3</c:v>
+                  <c:v>0.88600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.1100000000000001</c:v>
+                  <c:v>0.84168299999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.393939</c:v>
+                  <c:v>0.76673400000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.16</c:v>
+                  <c:v>0.83366700000000005</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.79</c:v>
+                  <c:v>0.87651800000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3407,11 +3407,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="97171456"/>
-        <c:axId val="67229312"/>
+        <c:axId val="95393792"/>
+        <c:axId val="66640064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="97171456"/>
+        <c:axId val="95393792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3421,7 +3421,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67229312"/>
+        <c:crossAx val="66640064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3429,7 +3429,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67229312"/>
+        <c:axId val="66640064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3440,7 +3440,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97171456"/>
+        <c:crossAx val="95393792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3860,9 +3860,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -3883,7 +3881,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
@@ -3893,7 +3891,7 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -3905,8 +3903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC22"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:K11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB1" sqref="AB1:AC11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3916,61 +3914,61 @@
         <v>1000</v>
       </c>
       <c r="B1">
-        <v>553.70000000000005</v>
+        <v>1961.6</v>
       </c>
       <c r="D1">
         <v>1000</v>
       </c>
       <c r="E1">
-        <v>524</v>
+        <v>1766.7</v>
       </c>
       <c r="G1">
         <v>1000</v>
       </c>
       <c r="H1">
-        <v>1092.2</v>
+        <v>5161.3999999999996</v>
       </c>
       <c r="J1">
         <v>1000</v>
       </c>
       <c r="K1">
-        <v>221.3</v>
+        <v>471.9</v>
       </c>
       <c r="M1">
         <v>1000</v>
       </c>
       <c r="N1">
-        <v>454.9</v>
+        <v>5039.3</v>
       </c>
       <c r="P1">
         <v>1000</v>
       </c>
       <c r="Q1">
-        <v>427.7</v>
+        <v>1808.1</v>
       </c>
       <c r="S1">
         <v>1000</v>
       </c>
       <c r="T1">
-        <v>591</v>
+        <v>1747.7</v>
       </c>
       <c r="V1">
         <v>1000</v>
       </c>
       <c r="W1">
-        <v>513.6</v>
+        <v>1741.2</v>
       </c>
       <c r="Y1">
         <v>1000</v>
       </c>
       <c r="Z1">
-        <v>612.9</v>
+        <v>1432.6</v>
       </c>
       <c r="AB1">
         <v>1000</v>
       </c>
       <c r="AC1">
-        <v>542.4</v>
+        <v>1873.4</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
@@ -3978,61 +3976,61 @@
         <v>1100</v>
       </c>
       <c r="B2">
-        <v>486.5</v>
+        <v>1980</v>
       </c>
       <c r="D2">
         <v>1100</v>
       </c>
       <c r="E2">
-        <v>556</v>
+        <v>1939.9</v>
       </c>
       <c r="G2">
         <v>1100</v>
       </c>
       <c r="H2">
-        <v>1109.7</v>
+        <v>5629.3</v>
       </c>
       <c r="J2">
         <v>1100</v>
       </c>
       <c r="K2">
-        <v>238</v>
+        <v>545.1</v>
       </c>
       <c r="M2">
         <v>1100</v>
       </c>
       <c r="N2">
-        <v>492.2</v>
+        <v>1982.6</v>
       </c>
       <c r="P2">
         <v>1100</v>
       </c>
       <c r="Q2">
-        <v>496.6</v>
+        <v>1965.2</v>
       </c>
       <c r="S2">
         <v>1100</v>
       </c>
       <c r="T2">
-        <v>594.4</v>
+        <v>1823.9</v>
       </c>
       <c r="V2">
         <v>1100</v>
       </c>
       <c r="W2">
-        <v>588.9</v>
+        <v>1870.9</v>
       </c>
       <c r="Y2">
         <v>1100</v>
       </c>
       <c r="Z2">
-        <v>644</v>
+        <v>1514.2</v>
       </c>
       <c r="AB2">
         <v>1100</v>
       </c>
       <c r="AC2">
-        <v>524.79999999999995</v>
+        <v>1907.4</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
@@ -4040,61 +4038,61 @@
         <v>1200</v>
       </c>
       <c r="B3">
-        <v>566.20000000000005</v>
+        <v>2125.1</v>
       </c>
       <c r="D3">
         <v>1200</v>
       </c>
       <c r="E3">
-        <v>621.1</v>
+        <v>2082.8000000000002</v>
       </c>
       <c r="G3">
         <v>1200</v>
       </c>
       <c r="H3">
-        <v>1522.2</v>
+        <v>6655.3</v>
       </c>
       <c r="J3">
         <v>1200</v>
       </c>
       <c r="K3">
-        <v>244.5</v>
+        <v>530.70000000000005</v>
       </c>
       <c r="M3">
         <v>1200</v>
       </c>
       <c r="N3">
-        <v>555</v>
+        <v>2108.6999999999998</v>
       </c>
       <c r="P3">
         <v>1200</v>
       </c>
       <c r="Q3">
-        <v>515.70000000000005</v>
+        <v>2061.9</v>
       </c>
       <c r="S3">
         <v>1200</v>
       </c>
       <c r="T3">
-        <v>690.9</v>
+        <v>2118.9</v>
       </c>
       <c r="V3">
         <v>1200</v>
       </c>
       <c r="W3">
-        <v>652</v>
+        <v>2065.6</v>
       </c>
       <c r="Y3">
         <v>1200</v>
       </c>
       <c r="Z3">
-        <v>920.8</v>
+        <v>5900.8</v>
       </c>
       <c r="AB3">
         <v>1200</v>
       </c>
       <c r="AC3">
-        <v>877</v>
+        <v>1957.4</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
@@ -4102,61 +4100,61 @@
         <v>1300</v>
       </c>
       <c r="B4">
-        <v>538.9</v>
+        <v>2246.1999999999998</v>
       </c>
       <c r="D4">
         <v>1300</v>
       </c>
       <c r="E4">
-        <v>617.29999999999995</v>
+        <v>2188</v>
       </c>
       <c r="G4">
         <v>1300</v>
       </c>
       <c r="H4">
-        <v>1704.5</v>
+        <v>6703</v>
       </c>
       <c r="J4">
         <v>1300</v>
       </c>
       <c r="K4">
-        <v>257.60000000000002</v>
+        <v>598.9</v>
       </c>
       <c r="M4">
         <v>1300</v>
       </c>
       <c r="N4">
-        <v>552.5</v>
+        <v>2222.8000000000002</v>
       </c>
       <c r="P4">
         <v>1300</v>
       </c>
       <c r="Q4">
-        <v>638.4</v>
+        <v>2204.3000000000002</v>
       </c>
       <c r="S4">
         <v>1300</v>
       </c>
       <c r="T4">
-        <v>723</v>
+        <v>2325.1999999999998</v>
       </c>
       <c r="V4">
         <v>1300</v>
       </c>
       <c r="W4">
-        <v>709</v>
+        <v>2203.6999999999998</v>
       </c>
       <c r="Y4">
         <v>1300</v>
       </c>
       <c r="Z4">
-        <v>811.2</v>
+        <v>1892.8</v>
       </c>
       <c r="AB4">
         <v>1300</v>
       </c>
       <c r="AC4">
-        <v>625.29999999999995</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
@@ -4164,61 +4162,61 @@
         <v>1400</v>
       </c>
       <c r="B5">
-        <v>551.20000000000005</v>
+        <v>2435.6</v>
       </c>
       <c r="D5">
         <v>1400</v>
       </c>
       <c r="E5">
-        <v>638.79999999999995</v>
+        <v>2261.1</v>
       </c>
       <c r="G5">
         <v>1400</v>
       </c>
       <c r="H5">
-        <v>1632.7</v>
+        <v>6742.5</v>
       </c>
       <c r="J5">
         <v>1400</v>
       </c>
       <c r="K5">
-        <v>250.9</v>
+        <v>581</v>
       </c>
       <c r="M5">
         <v>1400</v>
       </c>
       <c r="N5">
-        <v>632.70000000000005</v>
+        <v>2356.6</v>
       </c>
       <c r="P5">
         <v>1400</v>
       </c>
       <c r="Q5">
-        <v>600.5</v>
+        <v>2373.5</v>
       </c>
       <c r="S5">
         <v>1400</v>
       </c>
       <c r="T5">
-        <v>749.2</v>
+        <v>2348.5</v>
       </c>
       <c r="V5">
         <v>1400</v>
       </c>
       <c r="W5">
-        <v>732.9</v>
+        <v>2309.6</v>
       </c>
       <c r="Y5">
         <v>1400</v>
       </c>
       <c r="Z5">
-        <v>640.70000000000005</v>
+        <v>2042.9</v>
       </c>
       <c r="AB5">
         <v>1400</v>
       </c>
       <c r="AC5">
-        <v>636.79999999999995</v>
+        <v>1969.6</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
@@ -4226,61 +4224,61 @@
         <v>1500</v>
       </c>
       <c r="B6">
-        <v>613.20000000000005</v>
+        <v>2495.8000000000002</v>
       </c>
       <c r="D6">
         <v>1500</v>
       </c>
       <c r="E6">
-        <v>779.3</v>
+        <v>2552.8000000000002</v>
       </c>
       <c r="G6">
         <v>1500</v>
       </c>
       <c r="H6">
-        <v>1573.9</v>
+        <v>8516</v>
       </c>
       <c r="J6">
         <v>1500</v>
       </c>
       <c r="K6">
-        <v>268.5</v>
+        <v>601.29999999999995</v>
       </c>
       <c r="M6">
         <v>1500</v>
       </c>
       <c r="N6">
-        <v>681.9</v>
+        <v>2560.9</v>
       </c>
       <c r="P6">
         <v>1500</v>
       </c>
       <c r="Q6">
-        <v>660</v>
+        <v>2614.4</v>
       </c>
       <c r="S6">
         <v>1500</v>
       </c>
       <c r="T6">
-        <v>896</v>
+        <v>2452.3000000000002</v>
       </c>
       <c r="V6">
         <v>1500</v>
       </c>
       <c r="W6">
-        <v>791.1</v>
+        <v>2534</v>
       </c>
       <c r="Y6">
         <v>1500</v>
       </c>
       <c r="Z6">
-        <v>738.2</v>
+        <v>2279.6</v>
       </c>
       <c r="AB6">
         <v>1500</v>
       </c>
       <c r="AC6">
-        <v>704.4</v>
+        <v>2302.1999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
@@ -4288,61 +4286,61 @@
         <v>1600</v>
       </c>
       <c r="B7">
-        <v>673.4</v>
+        <v>2687.1</v>
       </c>
       <c r="D7">
         <v>1600</v>
       </c>
       <c r="E7">
-        <v>727.2</v>
+        <v>2775.1</v>
       </c>
       <c r="G7">
         <v>1600</v>
       </c>
       <c r="H7">
-        <v>1579.3</v>
+        <v>7278.4</v>
       </c>
       <c r="J7">
         <v>1600</v>
       </c>
       <c r="K7">
-        <v>271.5</v>
+        <v>593.20000000000005</v>
       </c>
       <c r="M7">
         <v>1600</v>
       </c>
       <c r="N7">
-        <v>658.5</v>
+        <v>2626.3</v>
       </c>
       <c r="P7">
         <v>1600</v>
       </c>
       <c r="Q7">
-        <v>706.1</v>
+        <v>2773.1</v>
       </c>
       <c r="S7">
         <v>1600</v>
       </c>
       <c r="T7">
-        <v>866.7</v>
+        <v>2677.7</v>
       </c>
       <c r="V7">
         <v>1600</v>
       </c>
       <c r="W7">
-        <v>751.4</v>
+        <v>2596.3000000000002</v>
       </c>
       <c r="Y7">
         <v>1600</v>
       </c>
       <c r="Z7">
-        <v>753.4</v>
+        <v>2603.6999999999998</v>
       </c>
       <c r="AB7">
         <v>1600</v>
       </c>
       <c r="AC7">
-        <v>731.1</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
@@ -4350,61 +4348,61 @@
         <v>1700</v>
       </c>
       <c r="B8">
-        <v>717.5</v>
+        <v>2777.2</v>
       </c>
       <c r="D8">
         <v>1700</v>
       </c>
       <c r="E8">
-        <v>712.8</v>
+        <v>2914.4</v>
       </c>
       <c r="G8">
         <v>1700</v>
       </c>
       <c r="H8">
-        <v>1554.3</v>
+        <v>7557.1</v>
       </c>
       <c r="J8">
         <v>1700</v>
       </c>
       <c r="K8">
-        <v>280.8</v>
+        <v>692.3</v>
       </c>
       <c r="M8">
         <v>1700</v>
       </c>
       <c r="N8">
-        <v>655.5</v>
+        <v>2634.8</v>
       </c>
       <c r="P8">
         <v>1700</v>
       </c>
       <c r="Q8">
-        <v>750.4</v>
+        <v>2784.3</v>
       </c>
       <c r="S8">
         <v>1700</v>
       </c>
       <c r="T8">
-        <v>834.5</v>
+        <v>2790.1</v>
       </c>
       <c r="V8">
         <v>1700</v>
       </c>
       <c r="W8">
-        <v>825.2</v>
+        <v>2740.3</v>
       </c>
       <c r="Y8">
         <v>1700</v>
       </c>
       <c r="Z8">
-        <v>697.2</v>
+        <v>2505.9</v>
       </c>
       <c r="AB8">
         <v>1700</v>
       </c>
       <c r="AC8">
-        <v>777.5</v>
+        <v>2703.8</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
@@ -4412,61 +4410,61 @@
         <v>1800</v>
       </c>
       <c r="B9">
-        <v>737.2</v>
+        <v>2878.1</v>
       </c>
       <c r="D9">
         <v>1800</v>
       </c>
       <c r="E9">
-        <v>718.8</v>
+        <v>3216.8</v>
       </c>
       <c r="G9">
         <v>1800</v>
       </c>
       <c r="H9">
-        <v>1666.1</v>
+        <v>8009.8</v>
       </c>
       <c r="J9">
         <v>1800</v>
       </c>
       <c r="K9">
-        <v>284.89999999999998</v>
+        <v>669.9</v>
       </c>
       <c r="M9">
         <v>1800</v>
       </c>
       <c r="N9">
-        <v>756.3</v>
+        <v>2976.3</v>
       </c>
       <c r="P9">
         <v>1800</v>
       </c>
       <c r="Q9">
-        <v>728.2</v>
+        <v>2933.4</v>
       </c>
       <c r="S9">
         <v>1800</v>
       </c>
       <c r="T9">
-        <v>875.3</v>
+        <v>3000.3</v>
       </c>
       <c r="V9">
         <v>1800</v>
       </c>
       <c r="W9">
-        <v>878.6</v>
+        <v>2860.9</v>
       </c>
       <c r="Y9">
         <v>1800</v>
       </c>
       <c r="Z9">
-        <v>589.20000000000005</v>
+        <v>2558.6</v>
       </c>
       <c r="AB9">
         <v>1800</v>
       </c>
       <c r="AC9">
-        <v>831</v>
+        <v>2359.6</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
@@ -4474,61 +4472,61 @@
         <v>1900</v>
       </c>
       <c r="B10">
-        <v>973.1</v>
+        <v>3136.5</v>
       </c>
       <c r="D10">
         <v>1900</v>
       </c>
       <c r="E10">
-        <v>773.1</v>
+        <v>3314.7</v>
       </c>
       <c r="G10">
         <v>1900</v>
       </c>
       <c r="H10">
-        <v>1716.4</v>
+        <v>8151.1</v>
       </c>
       <c r="J10">
         <v>1900</v>
       </c>
       <c r="K10">
-        <v>283.39999999999998</v>
+        <v>647.29999999999995</v>
       </c>
       <c r="M10">
         <v>1900</v>
       </c>
       <c r="N10">
-        <v>720.7</v>
+        <v>3067.7</v>
       </c>
       <c r="P10">
         <v>1900</v>
       </c>
       <c r="Q10">
-        <v>796.8</v>
+        <v>2910.3</v>
       </c>
       <c r="S10">
         <v>1900</v>
       </c>
       <c r="T10">
-        <v>799.8</v>
+        <v>3217.6</v>
       </c>
       <c r="V10">
         <v>1900</v>
       </c>
       <c r="W10">
-        <v>1030.2</v>
+        <v>3167.5</v>
       </c>
       <c r="Y10">
         <v>1900</v>
       </c>
       <c r="Z10">
-        <v>691</v>
+        <v>2568.4</v>
       </c>
       <c r="AB10">
         <v>1900</v>
       </c>
       <c r="AC10">
-        <v>912.5</v>
+        <v>2803.6</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
@@ -4536,61 +4534,61 @@
         <v>2000</v>
       </c>
       <c r="B11">
-        <v>806.5</v>
+        <v>3259.7</v>
       </c>
       <c r="D11">
         <v>2000</v>
       </c>
       <c r="E11">
-        <v>785.1</v>
+        <v>3361</v>
       </c>
       <c r="G11">
         <v>2000</v>
       </c>
       <c r="H11">
-        <v>1755.6</v>
+        <v>8318.7999999999993</v>
       </c>
       <c r="J11">
         <v>2000</v>
       </c>
       <c r="K11">
-        <v>291.8</v>
+        <v>663.3</v>
       </c>
       <c r="M11">
         <v>2000</v>
       </c>
       <c r="N11">
-        <v>833.7</v>
+        <v>3221.4</v>
       </c>
       <c r="P11">
         <v>2000</v>
       </c>
       <c r="Q11">
-        <v>850.5</v>
+        <v>3305.2</v>
       </c>
       <c r="S11">
         <v>2000</v>
       </c>
       <c r="T11">
-        <v>815</v>
+        <v>3222.5</v>
       </c>
       <c r="V11">
         <v>2000</v>
       </c>
       <c r="W11">
-        <v>983.4</v>
+        <v>3145.1</v>
       </c>
       <c r="Y11">
         <v>2000</v>
       </c>
       <c r="Z11">
-        <v>729.7</v>
+        <v>2948.4</v>
       </c>
       <c r="AB11">
         <v>2000</v>
       </c>
       <c r="AC11">
-        <v>870.5</v>
+        <v>2973</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
@@ -4653,9 +4651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC11"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:K11"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -4664,61 +4660,61 @@
         <v>1000</v>
       </c>
       <c r="B1">
-        <v>544.4</v>
+        <v>4.5819999999999999</v>
       </c>
       <c r="D1">
         <v>1000</v>
       </c>
       <c r="E1">
-        <v>522.29999999999995</v>
+        <v>2.62</v>
       </c>
       <c r="G1">
         <v>1000</v>
       </c>
       <c r="H1">
-        <v>11.23</v>
+        <v>0.76200000000000001</v>
       </c>
       <c r="J1">
         <v>1000</v>
       </c>
       <c r="K1">
-        <v>218.3</v>
+        <v>3.5259999999999998</v>
       </c>
       <c r="M1">
         <v>1000</v>
       </c>
       <c r="N1">
-        <v>446.3</v>
+        <v>7.9196080000000002</v>
       </c>
       <c r="P1">
         <v>1000</v>
       </c>
       <c r="Q1">
-        <v>419.4</v>
+        <v>2.4784310000000001</v>
       </c>
       <c r="S1">
         <v>1000</v>
       </c>
       <c r="T1">
-        <v>582.29999999999995</v>
+        <v>3.6294119999999999</v>
       </c>
       <c r="V1">
         <v>1000</v>
       </c>
       <c r="W1">
-        <v>510.1</v>
+        <v>2.805882</v>
       </c>
       <c r="Y1">
         <v>1000</v>
       </c>
       <c r="Z1">
-        <v>8.6020409999999998</v>
+        <v>6.0363639999999998</v>
       </c>
       <c r="AB1">
         <v>1000</v>
       </c>
       <c r="AC1">
-        <v>14.88</v>
+        <v>10.560484000000001</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
@@ -4726,61 +4722,61 @@
         <v>1100</v>
       </c>
       <c r="B2">
-        <v>469.8</v>
+        <v>3.26</v>
       </c>
       <c r="D2">
         <v>1100</v>
       </c>
       <c r="E2">
-        <v>547.20000000000005</v>
+        <v>2.6139999999999999</v>
       </c>
       <c r="G2">
         <v>1100</v>
       </c>
       <c r="H2">
-        <v>11.23</v>
+        <v>0.82199999999999995</v>
       </c>
       <c r="J2">
         <v>1100</v>
       </c>
       <c r="K2">
-        <v>233.9</v>
+        <v>4.0780000000000003</v>
       </c>
       <c r="M2">
         <v>1100</v>
       </c>
       <c r="N2">
-        <v>484.9</v>
+        <v>4.2607840000000001</v>
       </c>
       <c r="P2">
         <v>1100</v>
       </c>
       <c r="Q2">
-        <v>484.9</v>
+        <v>2.5941179999999999</v>
       </c>
       <c r="S2">
         <v>1100</v>
       </c>
       <c r="T2">
-        <v>585</v>
+        <v>4.4235290000000003</v>
       </c>
       <c r="V2">
         <v>1100</v>
       </c>
       <c r="W2">
-        <v>578.70000000000005</v>
+        <v>3.9901960000000001</v>
       </c>
       <c r="Y2">
         <v>1100</v>
       </c>
       <c r="Z2">
-        <v>14.242424</v>
+        <v>8.4658630000000006</v>
       </c>
       <c r="AB2">
         <v>1100</v>
       </c>
       <c r="AC2">
-        <v>13.39</v>
+        <v>9.2132799999999992</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
@@ -4788,61 +4784,61 @@
         <v>1200</v>
       </c>
       <c r="B3">
-        <v>555.5</v>
+        <v>3.4660000000000002</v>
       </c>
       <c r="D3">
         <v>1200</v>
       </c>
       <c r="E3">
-        <v>610.1</v>
+        <v>2.82</v>
       </c>
       <c r="G3">
         <v>1200</v>
       </c>
       <c r="H3">
-        <v>15.6</v>
+        <v>0.81599999999999995</v>
       </c>
       <c r="J3">
         <v>1200</v>
       </c>
       <c r="K3">
-        <v>243.6</v>
+        <v>3.988</v>
       </c>
       <c r="M3">
         <v>1200</v>
       </c>
       <c r="N3">
-        <v>531.79999999999995</v>
+        <v>3.6862750000000002</v>
       </c>
       <c r="P3">
         <v>1200</v>
       </c>
       <c r="Q3">
-        <v>508.5</v>
+        <v>2.8274509999999999</v>
       </c>
       <c r="S3">
         <v>1200</v>
       </c>
       <c r="T3">
-        <v>678.8</v>
+        <v>3.780392</v>
       </c>
       <c r="V3">
         <v>1200</v>
       </c>
       <c r="W3">
-        <v>647.4</v>
+        <v>3.1843140000000001</v>
       </c>
       <c r="Y3">
         <v>1200</v>
       </c>
       <c r="Z3">
-        <v>12.273683999999999</v>
+        <v>12.036</v>
       </c>
       <c r="AB3">
         <v>1200</v>
       </c>
       <c r="AC3">
-        <v>18.260000000000002</v>
+        <v>13.122</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
@@ -4850,61 +4846,61 @@
         <v>1300</v>
       </c>
       <c r="B4">
-        <v>538.1</v>
+        <v>3.0339999999999998</v>
       </c>
       <c r="D4">
         <v>1300</v>
       </c>
       <c r="E4">
-        <v>611.9</v>
+        <v>4.7300000000000004</v>
       </c>
       <c r="G4">
         <v>1300</v>
       </c>
       <c r="H4">
-        <v>17.47</v>
+        <v>0.83</v>
       </c>
       <c r="J4">
         <v>1300</v>
       </c>
       <c r="K4">
-        <v>241.9</v>
+        <v>4.5780000000000003</v>
       </c>
       <c r="M4">
         <v>1300</v>
       </c>
       <c r="N4">
-        <v>546.29999999999995</v>
+        <v>3.6843140000000001</v>
       </c>
       <c r="P4">
         <v>1300</v>
       </c>
       <c r="Q4">
-        <v>617.70000000000005</v>
+        <v>2.7019609999999998</v>
       </c>
       <c r="S4">
         <v>1300</v>
       </c>
       <c r="T4">
-        <v>723.7</v>
+        <v>4.0882350000000001</v>
       </c>
       <c r="V4">
         <v>1300</v>
       </c>
       <c r="W4">
-        <v>702</v>
+        <v>3.2156859999999998</v>
       </c>
       <c r="Y4">
         <v>1300</v>
       </c>
       <c r="Z4">
-        <v>12.806122</v>
+        <v>10.632</v>
       </c>
       <c r="AB4">
         <v>1300</v>
       </c>
       <c r="AC4">
-        <v>17.29</v>
+        <v>9.3742450000000002</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
@@ -4912,61 +4908,61 @@
         <v>1400</v>
       </c>
       <c r="B5">
-        <v>547.5</v>
+        <v>3.44</v>
       </c>
       <c r="D5">
         <v>1400</v>
       </c>
       <c r="E5">
-        <v>633.5</v>
+        <v>3.4460000000000002</v>
       </c>
       <c r="G5">
         <v>1400</v>
       </c>
       <c r="H5">
-        <v>16.53</v>
+        <v>0.88400000000000001</v>
       </c>
       <c r="J5">
         <v>1400</v>
       </c>
       <c r="K5">
-        <v>249.8</v>
+        <v>4.7519999999999998</v>
       </c>
       <c r="M5">
         <v>1400</v>
       </c>
       <c r="N5">
-        <v>617.79999999999995</v>
+        <v>3.8627449999999999</v>
       </c>
       <c r="P5">
         <v>1400</v>
       </c>
       <c r="Q5">
-        <v>587.9</v>
+        <v>2.9509799999999999</v>
       </c>
       <c r="S5">
         <v>1400</v>
       </c>
       <c r="T5">
-        <v>739.5</v>
+        <v>3.8705880000000001</v>
       </c>
       <c r="V5">
         <v>1400</v>
       </c>
       <c r="W5">
-        <v>712.6</v>
+        <v>3.6921569999999999</v>
       </c>
       <c r="Y5">
         <v>1400</v>
       </c>
       <c r="Z5">
-        <v>16.02</v>
+        <v>12.353999999999999</v>
       </c>
       <c r="AB5">
         <v>1400</v>
       </c>
       <c r="AC5">
-        <v>16.940000000000001</v>
+        <v>10.27163</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
@@ -4974,61 +4970,61 @@
         <v>1500</v>
       </c>
       <c r="B6">
-        <v>606.79999999999995</v>
+        <v>3.4580000000000002</v>
       </c>
       <c r="D6">
         <v>1500</v>
       </c>
       <c r="E6">
-        <v>767.8</v>
+        <v>3.1379999999999999</v>
       </c>
       <c r="G6">
         <v>1500</v>
       </c>
       <c r="H6">
-        <v>16.07</v>
+        <v>0.86799999999999999</v>
       </c>
       <c r="J6">
         <v>1500</v>
       </c>
       <c r="K6">
-        <v>268.39999999999998</v>
+        <v>4.8040000000000003</v>
       </c>
       <c r="M6">
         <v>1500</v>
       </c>
       <c r="N6">
-        <v>666.4</v>
+        <v>5.8450980000000001</v>
       </c>
       <c r="P6">
         <v>1500</v>
       </c>
       <c r="Q6">
-        <v>658.2</v>
+        <v>3.1392159999999998</v>
       </c>
       <c r="S6">
         <v>1500</v>
       </c>
       <c r="T6">
-        <v>891.9</v>
+        <v>3.9960779999999998</v>
       </c>
       <c r="V6">
         <v>1500</v>
       </c>
       <c r="W6">
-        <v>776.6</v>
+        <v>3.754902</v>
       </c>
       <c r="Y6">
         <v>1500</v>
       </c>
       <c r="Z6">
-        <v>20.2</v>
+        <v>12.644</v>
       </c>
       <c r="AB6">
         <v>1500</v>
       </c>
       <c r="AC6">
-        <v>16.899999999999999</v>
+        <v>14.655936000000001</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
@@ -5036,61 +5032,61 @@
         <v>1600</v>
       </c>
       <c r="B7">
-        <v>667.7</v>
+        <v>3.6659999999999999</v>
       </c>
       <c r="D7">
         <v>1600</v>
       </c>
       <c r="E7">
-        <v>722.3</v>
+        <v>3.6</v>
       </c>
       <c r="G7">
         <v>1600</v>
       </c>
       <c r="H7">
-        <v>16.07</v>
+        <v>0.93400000000000005</v>
       </c>
       <c r="J7">
         <v>1600</v>
       </c>
       <c r="K7">
-        <v>271.7</v>
+        <v>4.6520000000000001</v>
       </c>
       <c r="M7">
         <v>1600</v>
       </c>
       <c r="N7">
-        <v>649</v>
+        <v>4.1470589999999996</v>
       </c>
       <c r="P7">
         <v>1600</v>
       </c>
       <c r="Q7">
-        <v>710.2</v>
+        <v>3.3274509999999999</v>
       </c>
       <c r="S7">
         <v>1600</v>
       </c>
       <c r="T7">
-        <v>856.7</v>
+        <v>4.6607839999999996</v>
       </c>
       <c r="V7">
         <v>1600</v>
       </c>
       <c r="W7">
-        <v>740.9</v>
+        <v>4.2098040000000001</v>
       </c>
       <c r="Y7">
         <v>1600</v>
       </c>
       <c r="Z7">
-        <v>15.85</v>
+        <v>14.186747</v>
       </c>
       <c r="AB7">
         <v>1600</v>
       </c>
       <c r="AC7">
-        <v>17.39</v>
+        <v>16.582000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
@@ -5098,61 +5094,61 @@
         <v>1700</v>
       </c>
       <c r="B8">
-        <v>712.8</v>
+        <v>3.97</v>
       </c>
       <c r="D8">
         <v>1700</v>
       </c>
       <c r="E8">
-        <v>708.5</v>
+        <v>3.508</v>
       </c>
       <c r="G8">
         <v>1700</v>
       </c>
       <c r="H8">
-        <v>15.91</v>
+        <v>0.876</v>
       </c>
       <c r="J8">
         <v>1700</v>
       </c>
       <c r="K8">
-        <v>272.8</v>
+        <v>6.2880000000000003</v>
       </c>
       <c r="M8">
         <v>1700</v>
       </c>
       <c r="N8">
-        <v>650.29999999999995</v>
+        <v>8.6901960000000003</v>
       </c>
       <c r="P8">
         <v>1700</v>
       </c>
       <c r="Q8">
-        <v>744.1</v>
+        <v>3.4647060000000001</v>
       </c>
       <c r="S8">
         <v>1700</v>
       </c>
       <c r="T8">
-        <v>826.9</v>
+        <v>4.4352939999999998</v>
       </c>
       <c r="V8">
         <v>1700</v>
       </c>
       <c r="W8">
-        <v>803.4</v>
+        <v>5.4372550000000004</v>
       </c>
       <c r="Y8">
         <v>1700</v>
       </c>
       <c r="Z8">
-        <v>16.399999999999999</v>
+        <v>13.684739</v>
       </c>
       <c r="AB8">
         <v>1700</v>
       </c>
       <c r="AC8">
-        <v>18.600000000000001</v>
+        <v>17.901803999999998</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
@@ -5160,61 +5156,61 @@
         <v>1800</v>
       </c>
       <c r="B9">
-        <v>728.8</v>
+        <v>5.4039999999999999</v>
       </c>
       <c r="D9">
         <v>1800</v>
       </c>
       <c r="E9">
-        <v>709.6</v>
+        <v>4.5019999999999998</v>
       </c>
       <c r="G9">
         <v>1800</v>
       </c>
       <c r="H9">
-        <v>17.010000000000002</v>
+        <v>0.92200000000000004</v>
       </c>
       <c r="J9">
         <v>1800</v>
       </c>
       <c r="K9">
-        <v>284.10000000000002</v>
+        <v>4.8120000000000003</v>
       </c>
       <c r="M9">
         <v>1800</v>
       </c>
       <c r="N9">
-        <v>751.5</v>
+        <v>4.7901959999999999</v>
       </c>
       <c r="P9">
         <v>1800</v>
       </c>
       <c r="Q9">
-        <v>720.5</v>
+        <v>3.876471</v>
       </c>
       <c r="S9">
         <v>1800</v>
       </c>
       <c r="T9">
-        <v>870.6</v>
+        <v>4.8803919999999996</v>
       </c>
       <c r="V9">
         <v>1800</v>
       </c>
       <c r="W9">
-        <v>864.1</v>
+        <v>4.3627450000000003</v>
       </c>
       <c r="Y9">
         <v>1800</v>
       </c>
       <c r="Z9">
-        <v>11.69</v>
+        <v>11.901210000000001</v>
       </c>
       <c r="AB9">
         <v>1800</v>
       </c>
       <c r="AC9">
-        <v>19.919191999999999</v>
+        <v>10.387423999999999</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
@@ -5222,61 +5218,61 @@
         <v>1900</v>
       </c>
       <c r="B10">
-        <v>965.5</v>
+        <v>4.0119999999999996</v>
       </c>
       <c r="D10">
         <v>1900</v>
       </c>
       <c r="E10">
-        <v>769.3</v>
+        <v>3.8439999999999999</v>
       </c>
       <c r="G10">
         <v>1900</v>
       </c>
       <c r="H10">
-        <v>17.47</v>
+        <v>0.89200000000000002</v>
       </c>
       <c r="J10">
         <v>1900</v>
       </c>
       <c r="K10">
-        <v>280.5</v>
+        <v>4.9539999999999997</v>
       </c>
       <c r="M10">
         <v>1900</v>
       </c>
       <c r="N10">
-        <v>714.6</v>
+        <v>4.7470590000000001</v>
       </c>
       <c r="P10">
         <v>1900</v>
       </c>
       <c r="Q10">
-        <v>788.1</v>
+        <v>8.1</v>
       </c>
       <c r="S10">
         <v>1900</v>
       </c>
       <c r="T10">
-        <v>798.6</v>
+        <v>4.9254899999999999</v>
       </c>
       <c r="V10">
         <v>1900</v>
       </c>
       <c r="W10">
-        <v>1020.3</v>
+        <v>4.3843139999999998</v>
       </c>
       <c r="Y10">
         <v>1900</v>
       </c>
       <c r="Z10">
-        <v>17.98</v>
+        <v>13.450704</v>
       </c>
       <c r="AB10">
         <v>1900</v>
       </c>
       <c r="AC10">
-        <v>25.04</v>
+        <v>16.232465000000001</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
@@ -5284,61 +5280,61 @@
         <v>2000</v>
       </c>
       <c r="B11">
-        <v>798.5</v>
+        <v>4</v>
       </c>
       <c r="D11">
         <v>2000</v>
       </c>
       <c r="E11">
-        <v>778.5</v>
+        <v>3.9140000000000001</v>
       </c>
       <c r="G11">
         <v>2000</v>
       </c>
       <c r="H11">
-        <v>18.09</v>
+        <v>0.98399999999999999</v>
       </c>
       <c r="J11">
         <v>2000</v>
       </c>
       <c r="K11">
-        <v>290.3</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="M11">
         <v>2000</v>
       </c>
       <c r="N11">
-        <v>826.3</v>
+        <v>4.9549019999999997</v>
       </c>
       <c r="P11">
         <v>2000</v>
       </c>
       <c r="Q11">
-        <v>842.5</v>
+        <v>4.2254899999999997</v>
       </c>
       <c r="S11">
         <v>2000</v>
       </c>
       <c r="T11">
-        <v>814.5</v>
+        <v>4.9588239999999999</v>
       </c>
       <c r="V11">
         <v>2000</v>
       </c>
       <c r="W11">
-        <v>972.2</v>
+        <v>4.8294119999999996</v>
       </c>
       <c r="Y11">
         <v>2000</v>
       </c>
       <c r="Z11">
-        <v>16.559999999999999</v>
+        <v>16.491968</v>
       </c>
       <c r="AB11">
         <v>2000</v>
       </c>
       <c r="AC11">
-        <v>24.84</v>
+        <v>14.384615</v>
       </c>
     </row>
   </sheetData>
@@ -5351,9 +5347,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC11"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:K11"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -5362,61 +5356,61 @@
         <v>1000</v>
       </c>
       <c r="B1">
-        <v>5.82</v>
+        <v>2.7320000000000002</v>
       </c>
       <c r="D1">
         <v>1000</v>
       </c>
       <c r="E1">
-        <v>0.64</v>
+        <v>1.246</v>
       </c>
       <c r="G1">
         <v>1000</v>
       </c>
       <c r="H1">
-        <v>0</v>
+        <v>0.63800000000000001</v>
       </c>
       <c r="J1">
         <v>1000</v>
       </c>
       <c r="K1">
-        <v>18.8</v>
+        <v>1.42</v>
       </c>
       <c r="M1">
         <v>1000</v>
       </c>
       <c r="N1">
-        <v>1.42</v>
+        <v>3.11</v>
       </c>
       <c r="P1">
         <v>1000</v>
       </c>
       <c r="Q1">
-        <v>1.4</v>
+        <v>0.62</v>
       </c>
       <c r="S1">
         <v>1000</v>
       </c>
       <c r="T1">
-        <v>1.85</v>
+        <v>1.006</v>
       </c>
       <c r="V1">
         <v>1000</v>
       </c>
       <c r="W1">
-        <v>0.16</v>
+        <v>0.92800000000000005</v>
       </c>
       <c r="Y1">
         <v>1000</v>
       </c>
       <c r="Z1">
-        <v>0.46938800000000003</v>
+        <v>1.0202020000000001</v>
       </c>
       <c r="AB1">
         <v>1000</v>
       </c>
       <c r="AC1">
-        <v>1.1200000000000001</v>
+        <v>0.94556499999999999</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
@@ -5424,61 +5418,61 @@
         <v>1100</v>
       </c>
       <c r="B2">
-        <v>3.43</v>
+        <v>1.532</v>
       </c>
       <c r="D2">
         <v>1100</v>
       </c>
       <c r="E2">
-        <v>1.1000000000000001</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="G2">
         <v>1100</v>
       </c>
       <c r="H2">
-        <v>0.16</v>
+        <v>0.65200000000000002</v>
       </c>
       <c r="J2">
         <v>1100</v>
       </c>
       <c r="K2">
-        <v>26.2</v>
+        <v>1.57</v>
       </c>
       <c r="M2">
         <v>1100</v>
       </c>
       <c r="N2">
-        <v>1.08</v>
+        <v>1.3240000000000001</v>
       </c>
       <c r="P2">
         <v>1100</v>
       </c>
       <c r="Q2">
-        <v>0.79</v>
+        <v>0.63200000000000001</v>
       </c>
       <c r="S2">
         <v>1100</v>
       </c>
       <c r="T2">
-        <v>0.92</v>
+        <v>0.79400000000000004</v>
       </c>
       <c r="V2">
         <v>1100</v>
       </c>
       <c r="W2">
-        <v>0.15</v>
+        <v>0.86599999999999999</v>
       </c>
       <c r="Y2">
         <v>1100</v>
       </c>
       <c r="Z2">
-        <v>3.1515149999999998</v>
+        <v>1.182731</v>
       </c>
       <c r="AB2">
         <v>1100</v>
       </c>
       <c r="AC2">
-        <v>2.0099999999999998</v>
+        <v>1.307847</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
@@ -5486,61 +5480,61 @@
         <v>1200</v>
       </c>
       <c r="B3">
-        <v>2.0299999999999998</v>
+        <v>1.516</v>
       </c>
       <c r="D3">
         <v>1200</v>
       </c>
       <c r="E3">
-        <v>0.93</v>
+        <v>0.99199999999999999</v>
       </c>
       <c r="G3">
         <v>1200</v>
       </c>
       <c r="H3">
-        <v>0.47</v>
+        <v>0.65800000000000003</v>
       </c>
       <c r="J3">
         <v>1200</v>
       </c>
       <c r="K3">
-        <v>12.7</v>
+        <v>1.5620000000000001</v>
       </c>
       <c r="M3">
         <v>1200</v>
       </c>
       <c r="N3">
-        <v>1.58</v>
+        <v>1.0820000000000001</v>
       </c>
       <c r="P3">
         <v>1200</v>
       </c>
       <c r="Q3">
-        <v>1.26</v>
+        <v>0.65800000000000003</v>
       </c>
       <c r="S3">
         <v>1200</v>
       </c>
       <c r="T3">
-        <v>0.94</v>
+        <v>0.90600000000000003</v>
       </c>
       <c r="V3">
         <v>1200</v>
       </c>
       <c r="W3">
-        <v>0.16</v>
+        <v>0.82199999999999995</v>
       </c>
       <c r="Y3">
         <v>1200</v>
       </c>
       <c r="Z3">
-        <v>0.83157899999999996</v>
+        <v>1.266</v>
       </c>
       <c r="AB3">
         <v>1200</v>
       </c>
       <c r="AC3">
-        <v>2.0099999999999998</v>
+        <v>0.92200000000000004</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
@@ -5548,61 +5542,61 @@
         <v>1300</v>
       </c>
       <c r="B4">
-        <v>1.1000000000000001</v>
+        <v>1.1719999999999999</v>
       </c>
       <c r="D4">
         <v>1300</v>
       </c>
       <c r="E4">
-        <v>2.1800000000000002</v>
+        <v>0.86</v>
       </c>
       <c r="G4">
         <v>1300</v>
       </c>
       <c r="H4">
-        <v>0.64</v>
+        <v>0.61799999999999999</v>
       </c>
       <c r="J4">
         <v>1300</v>
       </c>
       <c r="K4">
-        <v>18.600000000000001</v>
+        <v>1.62</v>
       </c>
       <c r="M4">
         <v>1300</v>
       </c>
       <c r="N4">
-        <v>0.79</v>
+        <v>1.02</v>
       </c>
       <c r="P4">
         <v>1300</v>
       </c>
       <c r="Q4">
-        <v>0.46</v>
+        <v>0.64200000000000002</v>
       </c>
       <c r="S4">
         <v>1300</v>
       </c>
       <c r="T4">
-        <v>0.63</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="V4">
         <v>1300</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>0.70799999999999996</v>
       </c>
       <c r="Y4">
         <v>1300</v>
       </c>
       <c r="Z4">
-        <v>0.64285700000000001</v>
+        <v>0.99399999999999999</v>
       </c>
       <c r="AB4">
         <v>1300</v>
       </c>
       <c r="AC4">
-        <v>1.41</v>
+        <v>0.80482900000000002</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
@@ -5610,61 +5604,61 @@
         <v>1400</v>
       </c>
       <c r="B5">
-        <v>1.55</v>
+        <v>1.014</v>
       </c>
       <c r="D5">
         <v>1400</v>
       </c>
       <c r="E5">
-        <v>1.4</v>
+        <v>1.002</v>
       </c>
       <c r="G5">
         <v>1400</v>
       </c>
       <c r="H5">
-        <v>0.62</v>
+        <v>0.66800000000000004</v>
       </c>
       <c r="J5">
         <v>1400</v>
       </c>
       <c r="K5">
-        <v>28.3</v>
+        <v>1.8220000000000001</v>
       </c>
       <c r="M5">
         <v>1400</v>
       </c>
       <c r="N5">
-        <v>0.94</v>
+        <v>0.95599999999999996</v>
       </c>
       <c r="P5">
         <v>1400</v>
       </c>
       <c r="Q5">
-        <v>0.63</v>
+        <v>0.67400000000000004</v>
       </c>
       <c r="S5">
         <v>1400</v>
       </c>
       <c r="T5">
-        <v>0.62</v>
+        <v>0.96</v>
       </c>
       <c r="V5">
         <v>1400</v>
       </c>
       <c r="W5">
-        <v>0.48</v>
+        <v>0.84799999999999998</v>
       </c>
       <c r="Y5">
         <v>1400</v>
       </c>
       <c r="Z5">
-        <v>0.62</v>
+        <v>0.87</v>
       </c>
       <c r="AB5">
         <v>1400</v>
       </c>
       <c r="AC5">
-        <v>1.39</v>
+        <v>0.87122699999999997</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
@@ -5672,61 +5666,61 @@
         <v>1500</v>
       </c>
       <c r="B6">
-        <v>2.0299999999999998</v>
+        <v>1.1140000000000001</v>
       </c>
       <c r="D6">
         <v>1500</v>
       </c>
       <c r="E6">
-        <v>2.0499999999999998</v>
+        <v>0.89600000000000002</v>
       </c>
       <c r="G6">
         <v>1500</v>
       </c>
       <c r="H6">
-        <v>0.3</v>
+        <v>0.69399999999999995</v>
       </c>
       <c r="J6">
         <v>1500</v>
       </c>
       <c r="K6">
-        <v>23.6</v>
+        <v>1.728</v>
       </c>
       <c r="M6">
         <v>1500</v>
       </c>
       <c r="N6">
-        <v>1.56</v>
+        <v>1.9279999999999999</v>
       </c>
       <c r="P6">
         <v>1500</v>
       </c>
       <c r="Q6">
-        <v>0.77</v>
+        <v>0.64800000000000002</v>
       </c>
       <c r="S6">
         <v>1500</v>
       </c>
       <c r="T6">
-        <v>1.42</v>
+        <v>0.88800000000000001</v>
       </c>
       <c r="V6">
         <v>1500</v>
       </c>
       <c r="W6">
-        <v>0.47</v>
+        <v>0.87</v>
       </c>
       <c r="Y6">
         <v>1500</v>
       </c>
       <c r="Z6">
-        <v>0.77</v>
+        <v>0.81</v>
       </c>
       <c r="AB6">
         <v>1500</v>
       </c>
       <c r="AC6">
-        <v>0.94</v>
+        <v>0.847082</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
@@ -5734,61 +5728,61 @@
         <v>1600</v>
       </c>
       <c r="B7">
-        <v>0.47</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="D7">
         <v>1600</v>
       </c>
       <c r="E7">
-        <v>0.61</v>
+        <v>0.85799999999999998</v>
       </c>
       <c r="G7">
         <v>1600</v>
       </c>
       <c r="H7">
-        <v>0.16</v>
+        <v>0.72599999999999998</v>
       </c>
       <c r="J7">
         <v>1600</v>
       </c>
       <c r="K7">
-        <v>31.7</v>
+        <v>1.5860000000000001</v>
       </c>
       <c r="M7">
         <v>1600</v>
       </c>
       <c r="N7">
-        <v>1.25</v>
+        <v>0.93</v>
       </c>
       <c r="P7">
         <v>1600</v>
       </c>
       <c r="Q7">
-        <v>0.78</v>
+        <v>0.66</v>
       </c>
       <c r="S7">
         <v>1600</v>
       </c>
       <c r="T7">
-        <v>1.24</v>
+        <v>0.85799999999999998</v>
       </c>
       <c r="V7">
         <v>1600</v>
       </c>
       <c r="W7">
-        <v>0.46</v>
+        <v>0.91400000000000003</v>
       </c>
       <c r="Y7">
         <v>1600</v>
       </c>
       <c r="Z7">
-        <v>0.31</v>
+        <v>0.91767100000000001</v>
       </c>
       <c r="AB7">
         <v>1600</v>
       </c>
       <c r="AC7">
-        <v>0.3</v>
+        <v>0.88600000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
@@ -5796,61 +5790,61 @@
         <v>1700</v>
       </c>
       <c r="B8">
-        <v>0.47</v>
+        <v>1.0740000000000001</v>
       </c>
       <c r="D8">
         <v>1700</v>
       </c>
       <c r="E8">
-        <v>1.56</v>
+        <v>0.81200000000000006</v>
       </c>
       <c r="G8">
         <v>1700</v>
       </c>
       <c r="H8">
-        <v>0.31</v>
+        <v>0.70799999999999996</v>
       </c>
       <c r="J8">
         <v>1700</v>
       </c>
       <c r="K8">
-        <v>19.2</v>
+        <v>1.66</v>
       </c>
       <c r="M8">
         <v>1700</v>
       </c>
       <c r="N8">
-        <v>1.39</v>
+        <v>0.92200000000000004</v>
       </c>
       <c r="P8">
         <v>1700</v>
       </c>
       <c r="Q8">
-        <v>1.08</v>
+        <v>0.69799999999999995</v>
       </c>
       <c r="S8">
         <v>1700</v>
       </c>
       <c r="T8">
-        <v>1.26</v>
+        <v>0.92200000000000004</v>
       </c>
       <c r="V8">
         <v>1700</v>
       </c>
       <c r="W8">
-        <v>0.15</v>
+        <v>0.878</v>
       </c>
       <c r="Y8">
         <v>1700</v>
       </c>
       <c r="Z8">
-        <v>0.76</v>
+        <v>0.80923699999999998</v>
       </c>
       <c r="AB8">
         <v>1700</v>
       </c>
       <c r="AC8">
-        <v>1.1100000000000001</v>
+        <v>0.84168299999999996</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
@@ -5858,61 +5852,61 @@
         <v>1800</v>
       </c>
       <c r="B9">
-        <v>0.79</v>
+        <v>0.86599999999999999</v>
       </c>
       <c r="D9">
         <v>1800</v>
       </c>
       <c r="E9">
-        <v>1.1000000000000001</v>
+        <v>0.874</v>
       </c>
       <c r="G9">
         <v>1800</v>
       </c>
       <c r="H9">
-        <v>0.31</v>
+        <v>0.75800000000000001</v>
       </c>
       <c r="J9">
         <v>1800</v>
       </c>
       <c r="K9">
-        <v>21.9</v>
+        <v>1.798</v>
       </c>
       <c r="M9">
         <v>1800</v>
       </c>
       <c r="N9">
-        <v>1.08</v>
+        <v>1.1339999999999999</v>
       </c>
       <c r="P9">
         <v>1800</v>
       </c>
       <c r="Q9">
-        <v>0.94</v>
+        <v>0.72</v>
       </c>
       <c r="S9">
         <v>1800</v>
       </c>
       <c r="T9">
-        <v>1.24</v>
+        <v>1.046</v>
       </c>
       <c r="V9">
         <v>1800</v>
       </c>
       <c r="W9">
-        <v>0.31</v>
+        <v>0.90200000000000002</v>
       </c>
       <c r="Y9">
         <v>1800</v>
       </c>
       <c r="Z9">
-        <v>0.48</v>
+        <v>0.79435500000000003</v>
       </c>
       <c r="AB9">
         <v>1800</v>
       </c>
       <c r="AC9">
-        <v>1.393939</v>
+        <v>0.76673400000000003</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
@@ -5920,61 +5914,61 @@
         <v>1900</v>
       </c>
       <c r="B10">
-        <v>0.96</v>
+        <v>0.91400000000000003</v>
       </c>
       <c r="D10">
         <v>1900</v>
       </c>
       <c r="E10">
-        <v>1.07</v>
+        <v>0.80800000000000005</v>
       </c>
       <c r="G10">
         <v>1900</v>
       </c>
       <c r="H10">
-        <v>0.32</v>
+        <v>0.70599999999999996</v>
       </c>
       <c r="J10">
         <v>1900</v>
       </c>
       <c r="K10">
-        <v>27</v>
+        <v>1.93</v>
       </c>
       <c r="M10">
         <v>1900</v>
       </c>
       <c r="N10">
-        <v>2.19</v>
+        <v>0.96</v>
       </c>
       <c r="P10">
         <v>1900</v>
       </c>
       <c r="Q10">
-        <v>0.93</v>
+        <v>0.73</v>
       </c>
       <c r="S10">
         <v>1900</v>
       </c>
       <c r="T10">
-        <v>0.95</v>
+        <v>0.88800000000000001</v>
       </c>
       <c r="V10">
         <v>1900</v>
       </c>
       <c r="W10">
-        <v>0.8</v>
+        <v>0.87</v>
       </c>
       <c r="Y10">
         <v>1900</v>
       </c>
       <c r="Z10">
-        <v>0.78</v>
+        <v>0.818913</v>
       </c>
       <c r="AB10">
         <v>1900</v>
       </c>
       <c r="AC10">
-        <v>0.16</v>
+        <v>0.83366700000000005</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
@@ -5982,61 +5976,61 @@
         <v>2000</v>
       </c>
       <c r="B11">
-        <v>1.25</v>
+        <v>0.87</v>
       </c>
       <c r="D11">
         <v>2000</v>
       </c>
       <c r="E11">
-        <v>1.1100000000000001</v>
+        <v>0.84399999999999997</v>
       </c>
       <c r="G11">
         <v>2000</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.77200000000000002</v>
       </c>
       <c r="J11">
         <v>2000</v>
       </c>
       <c r="K11">
-        <v>14.4</v>
+        <v>1.8660000000000001</v>
       </c>
       <c r="M11">
         <v>2000</v>
       </c>
       <c r="N11">
-        <v>1.69</v>
+        <v>1.1120000000000001</v>
       </c>
       <c r="P11">
         <v>2000</v>
       </c>
       <c r="Q11">
-        <v>1.88</v>
+        <v>0.75</v>
       </c>
       <c r="S11">
         <v>2000</v>
       </c>
       <c r="T11">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="V11">
         <v>2000</v>
       </c>
       <c r="W11">
-        <v>0.47</v>
+        <v>0.92600000000000005</v>
       </c>
       <c r="Y11">
         <v>2000</v>
       </c>
       <c r="Z11">
-        <v>0.47</v>
+        <v>0.85943800000000004</v>
       </c>
       <c r="AB11">
         <v>2000</v>
       </c>
       <c r="AC11">
-        <v>0.79</v>
+        <v>0.87651800000000002</v>
       </c>
     </row>
   </sheetData>
